--- a/jyx2/excel/JYX2小宝商店.xlsx
+++ b/jyx2/excel/JYX2小宝商店.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239176BC-4CBD-4B69-8E1B-622B4A12D6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13668"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>代号</t>
   </si>
@@ -63,18 +69,16 @@
   <si>
     <t>物品5价格</t>
   </si>
+  <si>
+    <t>Trigger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -85,354 +89,28 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -440,263 +118,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -706,65 +142,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1093,21 +485,21 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:64">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +548,9 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -1190,9 +584,9 @@
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
     </row>
-    <row r="2" spans="1:64">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>7</v>
@@ -1239,7 +633,9 @@
       <c r="P2" s="1">
         <v>700</v>
       </c>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="1">
+        <v>16</v>
+      </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -1273,9 +669,9 @@
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
     </row>
-    <row r="3" spans="1:64">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1322,7 +718,9 @@
       <c r="P3" s="1">
         <v>600</v>
       </c>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="1">
+        <v>14</v>
+      </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -1356,9 +754,9 @@
       <c r="BK3" s="1"/>
       <c r="BL3" s="1"/>
     </row>
-    <row r="4" spans="1:64">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1">
         <v>26</v>
@@ -1405,7 +803,9 @@
       <c r="P4" s="1">
         <v>300</v>
       </c>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="1">
+        <v>20</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -1439,9 +839,9 @@
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
     </row>
-    <row r="5" spans="1:64">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1">
         <v>9</v>
@@ -1488,7 +888,9 @@
       <c r="P5" s="1">
         <v>250</v>
       </c>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1">
+        <v>12</v>
+      </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -1522,9 +924,9 @@
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
     </row>
-    <row r="6" spans="1:64">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1">
         <v>19</v>
@@ -1571,7 +973,9 @@
       <c r="P6" s="1">
         <v>300</v>
       </c>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="1">
+        <v>9</v>
+      </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -1605,7 +1009,7 @@
       <c r="BK6" s="1"/>
       <c r="BL6" s="1"/>
     </row>
-    <row r="7" spans="2:64">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1670,7 +1074,7 @@
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
     </row>
-    <row r="8" spans="2:64">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1735,7 +1139,7 @@
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
     </row>
-    <row r="9" spans="2:64">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1800,7 +1204,7 @@
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
     </row>
-    <row r="10" spans="2:64">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1865,7 +1269,7 @@
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
     </row>
-    <row r="11" spans="2:64">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1930,7 +1334,7 @@
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
     </row>
-    <row r="12" spans="2:64">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1995,7 +1399,7 @@
       <c r="BK12" s="1"/>
       <c r="BL12" s="1"/>
     </row>
-    <row r="13" spans="2:64">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2060,7 +1464,7 @@
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
     </row>
-    <row r="14" spans="2:64">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2125,7 +1529,7 @@
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
     </row>
-    <row r="15" spans="2:64">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2190,7 +1594,7 @@
       <c r="BK15" s="1"/>
       <c r="BL15" s="1"/>
     </row>
-    <row r="16" spans="2:64">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2255,7 +1659,7 @@
       <c r="BK16" s="1"/>
       <c r="BL16" s="1"/>
     </row>
-    <row r="17" spans="2:64">
+    <row r="17" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2320,7 +1724,7 @@
       <c r="BK17" s="1"/>
       <c r="BL17" s="1"/>
     </row>
-    <row r="18" spans="2:64">
+    <row r="18" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2385,7 +1789,7 @@
       <c r="BK18" s="1"/>
       <c r="BL18" s="1"/>
     </row>
-    <row r="19" spans="2:64">
+    <row r="19" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2450,7 +1854,7 @@
       <c r="BK19" s="1"/>
       <c r="BL19" s="1"/>
     </row>
-    <row r="20" spans="2:64">
+    <row r="20" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2515,7 +1919,7 @@
       <c r="BK20" s="1"/>
       <c r="BL20" s="1"/>
     </row>
-    <row r="21" spans="2:64">
+    <row r="21" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2580,7 +1984,7 @@
       <c r="BK21" s="1"/>
       <c r="BL21" s="1"/>
     </row>
-    <row r="22" spans="2:64">
+    <row r="22" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2645,7 +2049,7 @@
       <c r="BK22" s="1"/>
       <c r="BL22" s="1"/>
     </row>
-    <row r="23" spans="2:64">
+    <row r="23" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2710,7 +2114,7 @@
       <c r="BK23" s="1"/>
       <c r="BL23" s="1"/>
     </row>
-    <row r="24" spans="2:64">
+    <row r="24" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2775,7 +2179,7 @@
       <c r="BK24" s="1"/>
       <c r="BL24" s="1"/>
     </row>
-    <row r="25" spans="2:64">
+    <row r="25" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2840,7 +2244,7 @@
       <c r="BK25" s="1"/>
       <c r="BL25" s="1"/>
     </row>
-    <row r="26" spans="2:64">
+    <row r="26" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2905,7 +2309,7 @@
       <c r="BK26" s="1"/>
       <c r="BL26" s="1"/>
     </row>
-    <row r="27" spans="2:64">
+    <row r="27" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2970,7 +2374,7 @@
       <c r="BK27" s="1"/>
       <c r="BL27" s="1"/>
     </row>
-    <row r="28" spans="2:64">
+    <row r="28" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3035,7 +2439,7 @@
       <c r="BK28" s="1"/>
       <c r="BL28" s="1"/>
     </row>
-    <row r="29" spans="2:64">
+    <row r="29" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3100,7 +2504,7 @@
       <c r="BK29" s="1"/>
       <c r="BL29" s="1"/>
     </row>
-    <row r="30" spans="2:64">
+    <row r="30" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3165,7 +2569,7 @@
       <c r="BK30" s="1"/>
       <c r="BL30" s="1"/>
     </row>
-    <row r="31" spans="2:64">
+    <row r="31" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3230,7 +2634,7 @@
       <c r="BK31" s="1"/>
       <c r="BL31" s="1"/>
     </row>
-    <row r="32" spans="2:64">
+    <row r="32" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3295,7 +2699,7 @@
       <c r="BK32" s="1"/>
       <c r="BL32" s="1"/>
     </row>
-    <row r="33" spans="2:64">
+    <row r="33" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3360,7 +2764,7 @@
       <c r="BK33" s="1"/>
       <c r="BL33" s="1"/>
     </row>
-    <row r="34" spans="2:64">
+    <row r="34" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3425,7 +2829,7 @@
       <c r="BK34" s="1"/>
       <c r="BL34" s="1"/>
     </row>
-    <row r="35" spans="2:64">
+    <row r="35" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3490,7 +2894,7 @@
       <c r="BK35" s="1"/>
       <c r="BL35" s="1"/>
     </row>
-    <row r="36" spans="2:64">
+    <row r="36" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3555,7 +2959,7 @@
       <c r="BK36" s="1"/>
       <c r="BL36" s="1"/>
     </row>
-    <row r="37" spans="2:64">
+    <row r="37" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3620,7 +3024,7 @@
       <c r="BK37" s="1"/>
       <c r="BL37" s="1"/>
     </row>
-    <row r="38" spans="2:64">
+    <row r="38" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3685,7 +3089,7 @@
       <c r="BK38" s="1"/>
       <c r="BL38" s="1"/>
     </row>
-    <row r="39" spans="2:64">
+    <row r="39" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3750,7 +3154,7 @@
       <c r="BK39" s="1"/>
       <c r="BL39" s="1"/>
     </row>
-    <row r="40" spans="2:64">
+    <row r="40" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3815,7 +3219,7 @@
       <c r="BK40" s="1"/>
       <c r="BL40" s="1"/>
     </row>
-    <row r="41" spans="2:64">
+    <row r="41" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3880,7 +3284,7 @@
       <c r="BK41" s="1"/>
       <c r="BL41" s="1"/>
     </row>
-    <row r="42" spans="2:64">
+    <row r="42" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3945,7 +3349,7 @@
       <c r="BK42" s="1"/>
       <c r="BL42" s="1"/>
     </row>
-    <row r="43" spans="2:64">
+    <row r="43" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -4010,7 +3414,7 @@
       <c r="BK43" s="1"/>
       <c r="BL43" s="1"/>
     </row>
-    <row r="44" spans="2:64">
+    <row r="44" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -4075,7 +3479,7 @@
       <c r="BK44" s="1"/>
       <c r="BL44" s="1"/>
     </row>
-    <row r="45" spans="2:64">
+    <row r="45" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -4140,7 +3544,7 @@
       <c r="BK45" s="1"/>
       <c r="BL45" s="1"/>
     </row>
-    <row r="46" spans="2:64">
+    <row r="46" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -4205,7 +3609,7 @@
       <c r="BK46" s="1"/>
       <c r="BL46" s="1"/>
     </row>
-    <row r="47" spans="2:64">
+    <row r="47" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -4270,7 +3674,7 @@
       <c r="BK47" s="1"/>
       <c r="BL47" s="1"/>
     </row>
-    <row r="48" spans="2:64">
+    <row r="48" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -4335,7 +3739,7 @@
       <c r="BK48" s="1"/>
       <c r="BL48" s="1"/>
     </row>
-    <row r="49" spans="2:64">
+    <row r="49" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -4400,7 +3804,7 @@
       <c r="BK49" s="1"/>
       <c r="BL49" s="1"/>
     </row>
-    <row r="50" spans="2:64">
+    <row r="50" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -4465,7 +3869,7 @@
       <c r="BK50" s="1"/>
       <c r="BL50" s="1"/>
     </row>
-    <row r="51" spans="2:64">
+    <row r="51" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -4530,7 +3934,7 @@
       <c r="BK51" s="1"/>
       <c r="BL51" s="1"/>
     </row>
-    <row r="52" spans="2:64">
+    <row r="52" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -4595,7 +3999,7 @@
       <c r="BK52" s="1"/>
       <c r="BL52" s="1"/>
     </row>
-    <row r="53" spans="2:64">
+    <row r="53" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -4660,7 +4064,7 @@
       <c r="BK53" s="1"/>
       <c r="BL53" s="1"/>
     </row>
-    <row r="54" spans="2:64">
+    <row r="54" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -4725,7 +4129,7 @@
       <c r="BK54" s="1"/>
       <c r="BL54" s="1"/>
     </row>
-    <row r="55" spans="2:64">
+    <row r="55" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -4790,7 +4194,7 @@
       <c r="BK55" s="1"/>
       <c r="BL55" s="1"/>
     </row>
-    <row r="56" spans="2:64">
+    <row r="56" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -4855,7 +4259,7 @@
       <c r="BK56" s="1"/>
       <c r="BL56" s="1"/>
     </row>
-    <row r="57" spans="2:64">
+    <row r="57" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -4920,7 +4324,7 @@
       <c r="BK57" s="1"/>
       <c r="BL57" s="1"/>
     </row>
-    <row r="58" spans="2:64">
+    <row r="58" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -4985,7 +4389,7 @@
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
     </row>
-    <row r="59" spans="2:64">
+    <row r="59" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -5050,7 +4454,7 @@
       <c r="BK59" s="1"/>
       <c r="BL59" s="1"/>
     </row>
-    <row r="60" spans="2:64">
+    <row r="60" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -5115,7 +4519,7 @@
       <c r="BK60" s="1"/>
       <c r="BL60" s="1"/>
     </row>
-    <row r="61" spans="2:64">
+    <row r="61" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -5180,7 +4584,7 @@
       <c r="BK61" s="1"/>
       <c r="BL61" s="1"/>
     </row>
-    <row r="62" spans="2:64">
+    <row r="62" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -5245,7 +4649,7 @@
       <c r="BK62" s="1"/>
       <c r="BL62" s="1"/>
     </row>
-    <row r="63" spans="2:64">
+    <row r="63" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -5310,7 +4714,7 @@
       <c r="BK63" s="1"/>
       <c r="BL63" s="1"/>
     </row>
-    <row r="64" spans="2:64">
+    <row r="64" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -5375,7 +4779,7 @@
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
     </row>
-    <row r="65" spans="2:64">
+    <row r="65" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -5440,7 +4844,7 @@
       <c r="BK65" s="1"/>
       <c r="BL65" s="1"/>
     </row>
-    <row r="66" spans="2:64">
+    <row r="66" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -5505,7 +4909,7 @@
       <c r="BK66" s="1"/>
       <c r="BL66" s="1"/>
     </row>
-    <row r="67" spans="2:64">
+    <row r="67" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -5570,7 +4974,7 @@
       <c r="BK67" s="1"/>
       <c r="BL67" s="1"/>
     </row>
-    <row r="68" spans="2:64">
+    <row r="68" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -5635,7 +5039,7 @@
       <c r="BK68" s="1"/>
       <c r="BL68" s="1"/>
     </row>
-    <row r="69" spans="2:64">
+    <row r="69" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -5700,7 +5104,7 @@
       <c r="BK69" s="1"/>
       <c r="BL69" s="1"/>
     </row>
-    <row r="70" spans="2:64">
+    <row r="70" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -5765,7 +5169,7 @@
       <c r="BK70" s="1"/>
       <c r="BL70" s="1"/>
     </row>
-    <row r="71" spans="2:64">
+    <row r="71" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -5830,7 +5234,7 @@
       <c r="BK71" s="1"/>
       <c r="BL71" s="1"/>
     </row>
-    <row r="72" spans="2:64">
+    <row r="72" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -5895,7 +5299,7 @@
       <c r="BK72" s="1"/>
       <c r="BL72" s="1"/>
     </row>
-    <row r="73" spans="2:64">
+    <row r="73" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -5960,7 +5364,7 @@
       <c r="BK73" s="1"/>
       <c r="BL73" s="1"/>
     </row>
-    <row r="74" spans="2:64">
+    <row r="74" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -6025,7 +5429,7 @@
       <c r="BK74" s="1"/>
       <c r="BL74" s="1"/>
     </row>
-    <row r="75" spans="2:64">
+    <row r="75" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -6090,7 +5494,7 @@
       <c r="BK75" s="1"/>
       <c r="BL75" s="1"/>
     </row>
-    <row r="76" spans="2:64">
+    <row r="76" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -6155,7 +5559,7 @@
       <c r="BK76" s="1"/>
       <c r="BL76" s="1"/>
     </row>
-    <row r="77" spans="2:64">
+    <row r="77" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -6220,7 +5624,7 @@
       <c r="BK77" s="1"/>
       <c r="BL77" s="1"/>
     </row>
-    <row r="78" spans="2:64">
+    <row r="78" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -6285,7 +5689,7 @@
       <c r="BK78" s="1"/>
       <c r="BL78" s="1"/>
     </row>
-    <row r="79" spans="2:64">
+    <row r="79" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -6350,7 +5754,7 @@
       <c r="BK79" s="1"/>
       <c r="BL79" s="1"/>
     </row>
-    <row r="80" spans="2:64">
+    <row r="80" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -6415,7 +5819,7 @@
       <c r="BK80" s="1"/>
       <c r="BL80" s="1"/>
     </row>
-    <row r="81" spans="2:64">
+    <row r="81" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -6480,7 +5884,7 @@
       <c r="BK81" s="1"/>
       <c r="BL81" s="1"/>
     </row>
-    <row r="82" spans="2:64">
+    <row r="82" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -6545,7 +5949,7 @@
       <c r="BK82" s="1"/>
       <c r="BL82" s="1"/>
     </row>
-    <row r="83" spans="2:64">
+    <row r="83" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -6610,7 +6014,7 @@
       <c r="BK83" s="1"/>
       <c r="BL83" s="1"/>
     </row>
-    <row r="84" spans="2:64">
+    <row r="84" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -6675,7 +6079,7 @@
       <c r="BK84" s="1"/>
       <c r="BL84" s="1"/>
     </row>
-    <row r="85" spans="2:64">
+    <row r="85" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -6740,7 +6144,7 @@
       <c r="BK85" s="1"/>
       <c r="BL85" s="1"/>
     </row>
-    <row r="86" spans="2:64">
+    <row r="86" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -6805,7 +6209,7 @@
       <c r="BK86" s="1"/>
       <c r="BL86" s="1"/>
     </row>
-    <row r="87" spans="2:64">
+    <row r="87" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -6870,7 +6274,7 @@
       <c r="BK87" s="1"/>
       <c r="BL87" s="1"/>
     </row>
-    <row r="88" spans="2:64">
+    <row r="88" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -6935,7 +6339,7 @@
       <c r="BK88" s="1"/>
       <c r="BL88" s="1"/>
     </row>
-    <row r="89" spans="2:64">
+    <row r="89" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -7000,7 +6404,7 @@
       <c r="BK89" s="1"/>
       <c r="BL89" s="1"/>
     </row>
-    <row r="90" spans="2:64">
+    <row r="90" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -7065,7 +6469,7 @@
       <c r="BK90" s="1"/>
       <c r="BL90" s="1"/>
     </row>
-    <row r="91" spans="2:64">
+    <row r="91" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -7130,7 +6534,7 @@
       <c r="BK91" s="1"/>
       <c r="BL91" s="1"/>
     </row>
-    <row r="92" spans="2:64">
+    <row r="92" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -7195,7 +6599,7 @@
       <c r="BK92" s="1"/>
       <c r="BL92" s="1"/>
     </row>
-    <row r="93" spans="2:64">
+    <row r="93" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -7260,7 +6664,7 @@
       <c r="BK93" s="1"/>
       <c r="BL93" s="1"/>
     </row>
-    <row r="94" spans="2:64">
+    <row r="94" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -7325,7 +6729,7 @@
       <c r="BK94" s="1"/>
       <c r="BL94" s="1"/>
     </row>
-    <row r="95" spans="2:64">
+    <row r="95" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -7390,7 +6794,7 @@
       <c r="BK95" s="1"/>
       <c r="BL95" s="1"/>
     </row>
-    <row r="96" spans="2:64">
+    <row r="96" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -7455,7 +6859,7 @@
       <c r="BK96" s="1"/>
       <c r="BL96" s="1"/>
     </row>
-    <row r="97" spans="2:64">
+    <row r="97" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -7520,7 +6924,7 @@
       <c r="BK97" s="1"/>
       <c r="BL97" s="1"/>
     </row>
-    <row r="98" spans="2:64">
+    <row r="98" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -7585,7 +6989,7 @@
       <c r="BK98" s="1"/>
       <c r="BL98" s="1"/>
     </row>
-    <row r="99" spans="2:64">
+    <row r="99" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -7650,7 +7054,7 @@
       <c r="BK99" s="1"/>
       <c r="BL99" s="1"/>
     </row>
-    <row r="100" spans="2:64">
+    <row r="100" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -7715,7 +7119,7 @@
       <c r="BK100" s="1"/>
       <c r="BL100" s="1"/>
     </row>
-    <row r="101" spans="2:64">
+    <row r="101" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -7780,7 +7184,7 @@
       <c r="BK101" s="1"/>
       <c r="BL101" s="1"/>
     </row>
-    <row r="102" spans="2:64">
+    <row r="102" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -7845,7 +7249,7 @@
       <c r="BK102" s="1"/>
       <c r="BL102" s="1"/>
     </row>
-    <row r="103" spans="2:64">
+    <row r="103" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -7910,7 +7314,7 @@
       <c r="BK103" s="1"/>
       <c r="BL103" s="1"/>
     </row>
-    <row r="104" spans="2:64">
+    <row r="104" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -7975,7 +7379,7 @@
       <c r="BK104" s="1"/>
       <c r="BL104" s="1"/>
     </row>
-    <row r="105" spans="2:64">
+    <row r="105" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -8040,7 +7444,7 @@
       <c r="BK105" s="1"/>
       <c r="BL105" s="1"/>
     </row>
-    <row r="106" spans="2:64">
+    <row r="106" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -8105,7 +7509,7 @@
       <c r="BK106" s="1"/>
       <c r="BL106" s="1"/>
     </row>
-    <row r="107" spans="2:64">
+    <row r="107" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -8170,7 +7574,7 @@
       <c r="BK107" s="1"/>
       <c r="BL107" s="1"/>
     </row>
-    <row r="108" spans="2:64">
+    <row r="108" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -8235,7 +7639,7 @@
       <c r="BK108" s="1"/>
       <c r="BL108" s="1"/>
     </row>
-    <row r="109" spans="2:64">
+    <row r="109" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -8300,7 +7704,7 @@
       <c r="BK109" s="1"/>
       <c r="BL109" s="1"/>
     </row>
-    <row r="110" spans="2:64">
+    <row r="110" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -8365,7 +7769,7 @@
       <c r="BK110" s="1"/>
       <c r="BL110" s="1"/>
     </row>
-    <row r="111" spans="2:64">
+    <row r="111" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -8430,7 +7834,7 @@
       <c r="BK111" s="1"/>
       <c r="BL111" s="1"/>
     </row>
-    <row r="112" spans="2:64">
+    <row r="112" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -8495,7 +7899,7 @@
       <c r="BK112" s="1"/>
       <c r="BL112" s="1"/>
     </row>
-    <row r="113" spans="2:64">
+    <row r="113" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -8560,7 +7964,7 @@
       <c r="BK113" s="1"/>
       <c r="BL113" s="1"/>
     </row>
-    <row r="114" spans="2:64">
+    <row r="114" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -8625,7 +8029,7 @@
       <c r="BK114" s="1"/>
       <c r="BL114" s="1"/>
     </row>
-    <row r="115" spans="2:64">
+    <row r="115" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -8690,7 +8094,7 @@
       <c r="BK115" s="1"/>
       <c r="BL115" s="1"/>
     </row>
-    <row r="116" spans="2:64">
+    <row r="116" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -8755,7 +8159,7 @@
       <c r="BK116" s="1"/>
       <c r="BL116" s="1"/>
     </row>
-    <row r="117" spans="2:64">
+    <row r="117" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -8820,7 +8224,7 @@
       <c r="BK117" s="1"/>
       <c r="BL117" s="1"/>
     </row>
-    <row r="118" spans="2:64">
+    <row r="118" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -8885,7 +8289,7 @@
       <c r="BK118" s="1"/>
       <c r="BL118" s="1"/>
     </row>
-    <row r="119" spans="2:64">
+    <row r="119" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -8950,7 +8354,7 @@
       <c r="BK119" s="1"/>
       <c r="BL119" s="1"/>
     </row>
-    <row r="120" spans="2:64">
+    <row r="120" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -9015,7 +8419,7 @@
       <c r="BK120" s="1"/>
       <c r="BL120" s="1"/>
     </row>
-    <row r="121" spans="2:64">
+    <row r="121" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -9080,7 +8484,7 @@
       <c r="BK121" s="1"/>
       <c r="BL121" s="1"/>
     </row>
-    <row r="122" spans="2:64">
+    <row r="122" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -9145,7 +8549,7 @@
       <c r="BK122" s="1"/>
       <c r="BL122" s="1"/>
     </row>
-    <row r="123" spans="2:64">
+    <row r="123" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -9210,7 +8614,7 @@
       <c r="BK123" s="1"/>
       <c r="BL123" s="1"/>
     </row>
-    <row r="124" spans="2:64">
+    <row r="124" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -9275,7 +8679,7 @@
       <c r="BK124" s="1"/>
       <c r="BL124" s="1"/>
     </row>
-    <row r="125" spans="2:64">
+    <row r="125" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -9340,7 +8744,7 @@
       <c r="BK125" s="1"/>
       <c r="BL125" s="1"/>
     </row>
-    <row r="126" spans="2:64">
+    <row r="126" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -9405,7 +8809,7 @@
       <c r="BK126" s="1"/>
       <c r="BL126" s="1"/>
     </row>
-    <row r="127" spans="2:64">
+    <row r="127" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -9470,7 +8874,7 @@
       <c r="BK127" s="1"/>
       <c r="BL127" s="1"/>
     </row>
-    <row r="128" spans="2:64">
+    <row r="128" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -9535,7 +8939,7 @@
       <c r="BK128" s="1"/>
       <c r="BL128" s="1"/>
     </row>
-    <row r="129" spans="2:64">
+    <row r="129" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -9600,7 +9004,7 @@
       <c r="BK129" s="1"/>
       <c r="BL129" s="1"/>
     </row>
-    <row r="130" spans="2:64">
+    <row r="130" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -9665,7 +9069,7 @@
       <c r="BK130" s="1"/>
       <c r="BL130" s="1"/>
     </row>
-    <row r="131" spans="2:64">
+    <row r="131" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -9730,7 +9134,7 @@
       <c r="BK131" s="1"/>
       <c r="BL131" s="1"/>
     </row>
-    <row r="132" spans="2:64">
+    <row r="132" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -9795,7 +9199,7 @@
       <c r="BK132" s="1"/>
       <c r="BL132" s="1"/>
     </row>
-    <row r="133" spans="2:64">
+    <row r="133" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -9860,7 +9264,7 @@
       <c r="BK133" s="1"/>
       <c r="BL133" s="1"/>
     </row>
-    <row r="134" spans="2:64">
+    <row r="134" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -9925,7 +9329,7 @@
       <c r="BK134" s="1"/>
       <c r="BL134" s="1"/>
     </row>
-    <row r="135" spans="2:64">
+    <row r="135" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -9990,7 +9394,7 @@
       <c r="BK135" s="1"/>
       <c r="BL135" s="1"/>
     </row>
-    <row r="136" spans="2:64">
+    <row r="136" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -10055,7 +9459,7 @@
       <c r="BK136" s="1"/>
       <c r="BL136" s="1"/>
     </row>
-    <row r="137" spans="2:64">
+    <row r="137" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -10120,7 +9524,7 @@
       <c r="BK137" s="1"/>
       <c r="BL137" s="1"/>
     </row>
-    <row r="138" spans="2:64">
+    <row r="138" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -10185,7 +9589,7 @@
       <c r="BK138" s="1"/>
       <c r="BL138" s="1"/>
     </row>
-    <row r="139" spans="2:64">
+    <row r="139" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -10250,7 +9654,7 @@
       <c r="BK139" s="1"/>
       <c r="BL139" s="1"/>
     </row>
-    <row r="140" spans="2:64">
+    <row r="140" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -10315,7 +9719,7 @@
       <c r="BK140" s="1"/>
       <c r="BL140" s="1"/>
     </row>
-    <row r="141" spans="2:64">
+    <row r="141" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -10380,7 +9784,7 @@
       <c r="BK141" s="1"/>
       <c r="BL141" s="1"/>
     </row>
-    <row r="142" spans="2:64">
+    <row r="142" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -10445,7 +9849,7 @@
       <c r="BK142" s="1"/>
       <c r="BL142" s="1"/>
     </row>
-    <row r="143" spans="2:64">
+    <row r="143" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -10510,7 +9914,7 @@
       <c r="BK143" s="1"/>
       <c r="BL143" s="1"/>
     </row>
-    <row r="144" spans="2:64">
+    <row r="144" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -10575,7 +9979,7 @@
       <c r="BK144" s="1"/>
       <c r="BL144" s="1"/>
     </row>
-    <row r="145" spans="2:64">
+    <row r="145" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -10640,7 +10044,7 @@
       <c r="BK145" s="1"/>
       <c r="BL145" s="1"/>
     </row>
-    <row r="146" spans="2:64">
+    <row r="146" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -10705,7 +10109,7 @@
       <c r="BK146" s="1"/>
       <c r="BL146" s="1"/>
     </row>
-    <row r="147" spans="2:64">
+    <row r="147" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -10770,7 +10174,7 @@
       <c r="BK147" s="1"/>
       <c r="BL147" s="1"/>
     </row>
-    <row r="148" spans="2:64">
+    <row r="148" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -10835,7 +10239,7 @@
       <c r="BK148" s="1"/>
       <c r="BL148" s="1"/>
     </row>
-    <row r="149" spans="2:64">
+    <row r="149" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -10900,7 +10304,7 @@
       <c r="BK149" s="1"/>
       <c r="BL149" s="1"/>
     </row>
-    <row r="150" spans="2:64">
+    <row r="150" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -10965,7 +10369,7 @@
       <c r="BK150" s="1"/>
       <c r="BL150" s="1"/>
     </row>
-    <row r="151" spans="2:64">
+    <row r="151" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -11030,7 +10434,7 @@
       <c r="BK151" s="1"/>
       <c r="BL151" s="1"/>
     </row>
-    <row r="152" spans="2:64">
+    <row r="152" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -11095,7 +10499,7 @@
       <c r="BK152" s="1"/>
       <c r="BL152" s="1"/>
     </row>
-    <row r="153" spans="2:64">
+    <row r="153" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -11160,7 +10564,7 @@
       <c r="BK153" s="1"/>
       <c r="BL153" s="1"/>
     </row>
-    <row r="154" spans="2:64">
+    <row r="154" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -11225,7 +10629,7 @@
       <c r="BK154" s="1"/>
       <c r="BL154" s="1"/>
     </row>
-    <row r="155" spans="2:64">
+    <row r="155" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -11290,7 +10694,7 @@
       <c r="BK155" s="1"/>
       <c r="BL155" s="1"/>
     </row>
-    <row r="156" spans="2:64">
+    <row r="156" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -11355,7 +10759,7 @@
       <c r="BK156" s="1"/>
       <c r="BL156" s="1"/>
     </row>
-    <row r="157" spans="2:64">
+    <row r="157" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -11420,7 +10824,7 @@
       <c r="BK157" s="1"/>
       <c r="BL157" s="1"/>
     </row>
-    <row r="158" spans="2:64">
+    <row r="158" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -11485,7 +10889,7 @@
       <c r="BK158" s="1"/>
       <c r="BL158" s="1"/>
     </row>
-    <row r="159" spans="2:64">
+    <row r="159" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -11550,7 +10954,7 @@
       <c r="BK159" s="1"/>
       <c r="BL159" s="1"/>
     </row>
-    <row r="160" spans="2:64">
+    <row r="160" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -11615,7 +11019,7 @@
       <c r="BK160" s="1"/>
       <c r="BL160" s="1"/>
     </row>
-    <row r="161" spans="2:64">
+    <row r="161" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -11680,7 +11084,7 @@
       <c r="BK161" s="1"/>
       <c r="BL161" s="1"/>
     </row>
-    <row r="162" spans="2:64">
+    <row r="162" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -11745,7 +11149,7 @@
       <c r="BK162" s="1"/>
       <c r="BL162" s="1"/>
     </row>
-    <row r="163" spans="2:64">
+    <row r="163" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -11810,7 +11214,7 @@
       <c r="BK163" s="1"/>
       <c r="BL163" s="1"/>
     </row>
-    <row r="164" spans="2:64">
+    <row r="164" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -11875,7 +11279,7 @@
       <c r="BK164" s="1"/>
       <c r="BL164" s="1"/>
     </row>
-    <row r="165" spans="2:64">
+    <row r="165" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -11940,7 +11344,7 @@
       <c r="BK165" s="1"/>
       <c r="BL165" s="1"/>
     </row>
-    <row r="166" spans="2:64">
+    <row r="166" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -12005,7 +11409,7 @@
       <c r="BK166" s="1"/>
       <c r="BL166" s="1"/>
     </row>
-    <row r="167" spans="2:64">
+    <row r="167" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -12070,7 +11474,7 @@
       <c r="BK167" s="1"/>
       <c r="BL167" s="1"/>
     </row>
-    <row r="168" spans="2:64">
+    <row r="168" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -12135,7 +11539,7 @@
       <c r="BK168" s="1"/>
       <c r="BL168" s="1"/>
     </row>
-    <row r="169" spans="2:64">
+    <row r="169" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -12200,7 +11604,7 @@
       <c r="BK169" s="1"/>
       <c r="BL169" s="1"/>
     </row>
-    <row r="170" spans="2:64">
+    <row r="170" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -12265,7 +11669,7 @@
       <c r="BK170" s="1"/>
       <c r="BL170" s="1"/>
     </row>
-    <row r="171" spans="2:64">
+    <row r="171" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -12330,7 +11734,7 @@
       <c r="BK171" s="1"/>
       <c r="BL171" s="1"/>
     </row>
-    <row r="172" spans="2:64">
+    <row r="172" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -12395,7 +11799,7 @@
       <c r="BK172" s="1"/>
       <c r="BL172" s="1"/>
     </row>
-    <row r="173" spans="2:64">
+    <row r="173" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -12460,7 +11864,7 @@
       <c r="BK173" s="1"/>
       <c r="BL173" s="1"/>
     </row>
-    <row r="174" spans="2:64">
+    <row r="174" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -12525,7 +11929,7 @@
       <c r="BK174" s="1"/>
       <c r="BL174" s="1"/>
     </row>
-    <row r="175" spans="2:64">
+    <row r="175" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -12590,7 +11994,7 @@
       <c r="BK175" s="1"/>
       <c r="BL175" s="1"/>
     </row>
-    <row r="176" spans="2:64">
+    <row r="176" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -12655,7 +12059,7 @@
       <c r="BK176" s="1"/>
       <c r="BL176" s="1"/>
     </row>
-    <row r="177" spans="2:64">
+    <row r="177" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -12720,7 +12124,7 @@
       <c r="BK177" s="1"/>
       <c r="BL177" s="1"/>
     </row>
-    <row r="178" spans="2:64">
+    <row r="178" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -12785,7 +12189,7 @@
       <c r="BK178" s="1"/>
       <c r="BL178" s="1"/>
     </row>
-    <row r="179" spans="2:64">
+    <row r="179" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -12850,7 +12254,7 @@
       <c r="BK179" s="1"/>
       <c r="BL179" s="1"/>
     </row>
-    <row r="180" spans="2:64">
+    <row r="180" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -12915,7 +12319,7 @@
       <c r="BK180" s="1"/>
       <c r="BL180" s="1"/>
     </row>
-    <row r="181" spans="2:64">
+    <row r="181" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -12980,7 +12384,7 @@
       <c r="BK181" s="1"/>
       <c r="BL181" s="1"/>
     </row>
-    <row r="182" spans="2:64">
+    <row r="182" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -13045,7 +12449,7 @@
       <c r="BK182" s="1"/>
       <c r="BL182" s="1"/>
     </row>
-    <row r="183" spans="2:64">
+    <row r="183" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -13110,7 +12514,7 @@
       <c r="BK183" s="1"/>
       <c r="BL183" s="1"/>
     </row>
-    <row r="184" spans="2:64">
+    <row r="184" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -13175,7 +12579,7 @@
       <c r="BK184" s="1"/>
       <c r="BL184" s="1"/>
     </row>
-    <row r="185" spans="2:64">
+    <row r="185" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -13240,7 +12644,7 @@
       <c r="BK185" s="1"/>
       <c r="BL185" s="1"/>
     </row>
-    <row r="186" spans="2:64">
+    <row r="186" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -13305,7 +12709,7 @@
       <c r="BK186" s="1"/>
       <c r="BL186" s="1"/>
     </row>
-    <row r="187" spans="2:64">
+    <row r="187" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -13370,7 +12774,7 @@
       <c r="BK187" s="1"/>
       <c r="BL187" s="1"/>
     </row>
-    <row r="188" spans="2:64">
+    <row r="188" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -13435,7 +12839,7 @@
       <c r="BK188" s="1"/>
       <c r="BL188" s="1"/>
     </row>
-    <row r="189" spans="2:64">
+    <row r="189" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -13500,7 +12904,7 @@
       <c r="BK189" s="1"/>
       <c r="BL189" s="1"/>
     </row>
-    <row r="190" spans="2:64">
+    <row r="190" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -13565,7 +12969,7 @@
       <c r="BK190" s="1"/>
       <c r="BL190" s="1"/>
     </row>
-    <row r="191" spans="2:64">
+    <row r="191" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -13630,7 +13034,7 @@
       <c r="BK191" s="1"/>
       <c r="BL191" s="1"/>
     </row>
-    <row r="192" spans="2:64">
+    <row r="192" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -13695,7 +13099,7 @@
       <c r="BK192" s="1"/>
       <c r="BL192" s="1"/>
     </row>
-    <row r="193" spans="2:64">
+    <row r="193" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -13760,7 +13164,7 @@
       <c r="BK193" s="1"/>
       <c r="BL193" s="1"/>
     </row>
-    <row r="194" spans="2:64">
+    <row r="194" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -13825,7 +13229,7 @@
       <c r="BK194" s="1"/>
       <c r="BL194" s="1"/>
     </row>
-    <row r="195" spans="2:64">
+    <row r="195" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -13890,7 +13294,7 @@
       <c r="BK195" s="1"/>
       <c r="BL195" s="1"/>
     </row>
-    <row r="196" spans="2:64">
+    <row r="196" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -13955,7 +13359,7 @@
       <c r="BK196" s="1"/>
       <c r="BL196" s="1"/>
     </row>
-    <row r="197" spans="2:64">
+    <row r="197" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -14020,7 +13424,7 @@
       <c r="BK197" s="1"/>
       <c r="BL197" s="1"/>
     </row>
-    <row r="198" spans="2:64">
+    <row r="198" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -14085,7 +13489,7 @@
       <c r="BK198" s="1"/>
       <c r="BL198" s="1"/>
     </row>
-    <row r="199" spans="2:64">
+    <row r="199" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -14150,7 +13554,7 @@
       <c r="BK199" s="1"/>
       <c r="BL199" s="1"/>
     </row>
-    <row r="200" spans="2:64">
+    <row r="200" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -14215,7 +13619,7 @@
       <c r="BK200" s="1"/>
       <c r="BL200" s="1"/>
     </row>
-    <row r="201" spans="2:64">
+    <row r="201" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -14281,7 +13685,8 @@
       <c r="BL201" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>